--- a/join/result.xlsx
+++ b/join/result.xlsx
@@ -527,52 +527,42 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>사위식당 정자본점</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>1017221386</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>769</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>사위식당 정자본점</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>진대감 분당점</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>1567653802</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>166</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>진대감 분당점</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
